--- a/biology/Botanique/Sphagnum_fuscum/Sphagnum_fuscum.xlsx
+++ b/biology/Botanique/Sphagnum_fuscum/Sphagnum_fuscum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sphaigne brune (Sphagnum fuscum), une espèce de mousses faisant partie du genre des sphaignes (famille des Sphagnaceae). Elle est très commune dans les tourbières de Scandinavie, mais on la trouve aussi dans le reste de l'Eurasie et en Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (3 janvier 2017)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (3 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Sphagnum fuscum var. compactum Röll
 variété Sphagnum fuscum var. deflexum Röll
 variété Sphagnum fuscum var. densum Röll
